--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1140783.944951911</v>
+        <v>1134779.735136632</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969142</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10869967.54494176</v>
+        <v>11126400.51662541</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>77.42639794035608</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>135.4371632022867</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>28.9622668244878</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>24.88166537968375</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -879,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>24.14763241892726</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>373.5689935409305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>12.49196499094414</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>164.2540732785633</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1113,16 +1113,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>272.6757250332602</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145775</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>58.91300921516505</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.93556627299015</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>201.66221878632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>67.96386702300542</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>47.4059521982791</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>106.9094576655913</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.42721558713019</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>13.72582864853737</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>83.06560892428269</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>146.1850499531015</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756243</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>176.76214411214</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>212.5602966632231</v>
       </c>
       <c r="V34" t="n">
-        <v>176.7621441121407</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>45.17596778975057</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>75.00788511618036</v>
       </c>
       <c r="V40" t="n">
-        <v>40.62253010341785</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>31.26260713376619</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U46" t="n">
-        <v>0.2811815126425495</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>2065.110222835251</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1696.147705894839</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792696</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.483610522581</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X2" t="n">
-        <v>2394.678395166736</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y2" t="n">
-        <v>2004.539063190924</v>
+        <v>2451.710062899373</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686085</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339.3097953702104</v>
+        <v>820.4128495803434</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959803</v>
+        <v>651.4766666524365</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>651.4766666524365</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>503.5635730700434</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>356.673625572133</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>188.970788946852</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V4" t="n">
-        <v>1259.157560278958</v>
+        <v>1450.843444452131</v>
       </c>
       <c r="W4" t="n">
-        <v>969.7403902419976</v>
+        <v>1450.843444452131</v>
       </c>
       <c r="X4" t="n">
-        <v>741.7508393439803</v>
+        <v>1222.853893554113</v>
       </c>
       <c r="Y4" t="n">
-        <v>520.9582602004501</v>
+        <v>1002.061314410583</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.5673701373257</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>934.5673701373257</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4591,13 +4591,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
@@ -4606,13 +4606,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.167210201447</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>470.5862204338725</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>470.5862204338725</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>470.5862204338725</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>322.6731268514794</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>322.6731268514794</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1761.381342756611</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1539.614727326137</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X7" t="n">
-        <v>652.2346852641123</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>652.2346852641123</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2251.634947019675</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995486</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.634947019675</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.1346335501037</v>
+        <v>907.5789065943389</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>738.6427236664321</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>588.5260842540963</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>440.6129906717032</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>293.7230431737928</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>126.0202065485118</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>126.0202065485118</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4992,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1356.361036635886</v>
       </c>
       <c r="X10" t="n">
-        <v>879.9099329995254</v>
+        <v>1128.371485737869</v>
       </c>
       <c r="Y10" t="n">
-        <v>860.7830983803434</v>
+        <v>907.5789065943389</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1190.154071768027</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1190.154071768027</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1190.154071768027</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3277.72102140889</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3277.72102140889</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3024.190544682726</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>2693.127657339155</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>2340.359002069041</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>1966.893243807961</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>1576.753911832149</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218343</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,52 +5509,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>634.4644740681601</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>465.5282911402533</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,13 +5746,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
@@ -5761,40 +5761,40 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558406</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630499</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>2588.787486630499</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>2504.882831151425</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>2504.882831151425</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.25592267304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467153</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430193</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5983,37 +5983,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,52 +6214,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,16 +6317,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.53722908186</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153953</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741617</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159224</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4262.384993990608</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4262.384993990608</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990608</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953647</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912099</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,67 +6682,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>2197.062545487568</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913447</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2381.235169913447</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>2978.613657539999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3606.211621094606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4158.121351333893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4581.744500828961</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934014</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7168,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7311,64 +7311,64 @@
         <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510509</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W40" t="n">
         <v>1647.011051783227</v>
@@ -7405,40 +7405,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.222762528164</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.538274322277</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.121104285317</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.131553387299</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>111.8681131589319</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>61.78180958989674</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>39.52450498097789</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.4047645948071</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>63.36835372228649</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>71.22040037418677</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516639</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>73.624177726021</v>
       </c>
       <c r="V34" t="n">
-        <v>75.37549921168727</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>180.5336875992866</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>211.1765892730638</v>
       </c>
       <c r="V40" t="n">
-        <v>211.5151132204101</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>186.1428431935221</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U46" t="n">
-        <v>285.9032928766016</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>811102.286021861</v>
+        <v>958156.3580759545</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>811102.2860218609</v>
+        <v>958156.3580759545</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>958156.3580759544</v>
+        <v>958156.3580759545</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>958156.3580759545</v>
+        <v>958156.3580759546</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>958156.3580759546</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>958156.3580759546</v>
+        <v>958156.3580759545</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>958156.3580759546</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>958156.3580759546</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>958156.3580759545</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.0176719632</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.0176719632</v>
-      </c>
       <c r="E2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
@@ -26340,10 +26340,10 @@
         <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217539</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217536</v>
@@ -26352,7 +26352,7 @@
         <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217537</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.82672692972119e-10</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545136</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
-        <v>10380.34706710378</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10380.34706710378</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1054323.791675155</v>
       </c>
       <c r="C6" t="n">
+        <v>274420.954052437</v>
+      </c>
+      <c r="D6" t="n">
         <v>274420.9540524373</v>
       </c>
-      <c r="D6" t="n">
-        <v>274420.9540524374</v>
-      </c>
       <c r="E6" t="n">
-        <v>307459.9761880618</v>
+        <v>26669.83564935303</v>
       </c>
       <c r="F6" t="n">
-        <v>307459.976188062</v>
+        <v>352082.2974567083</v>
       </c>
       <c r="G6" t="n">
-        <v>42586.64325124495</v>
+        <v>352082.2974567085</v>
       </c>
       <c r="H6" t="n">
-        <v>352429.6767110655</v>
+        <v>352082.2974567083</v>
       </c>
       <c r="I6" t="n">
-        <v>352429.6767110653</v>
+        <v>352082.2974567084</v>
       </c>
       <c r="J6" t="n">
-        <v>134898.4743137877</v>
+        <v>134551.095059431</v>
       </c>
       <c r="K6" t="n">
-        <v>352429.6767110653</v>
+        <v>352082.2974567086</v>
       </c>
       <c r="L6" t="n">
-        <v>352429.6767110653</v>
+        <v>352082.2974567083</v>
       </c>
       <c r="M6" t="n">
-        <v>352429.6767110653</v>
+        <v>267027.2695211966</v>
       </c>
       <c r="N6" t="n">
-        <v>352429.6767110653</v>
+        <v>352082.2974567084</v>
       </c>
       <c r="O6" t="n">
-        <v>270293.8461156139</v>
+        <v>352082.2974567084</v>
       </c>
       <c r="P6" t="n">
-        <v>352429.6767110653</v>
+        <v>352082.2974567084</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483759</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>277.2566436803269</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>234.2939374761824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>138.28455427414</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>119.873349534637</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>358.5862092445533</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.66894511512311</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>153.5338432680841</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>25.51495205287856</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>92.59716673774733</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>111.4435131414761</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>37.43941119467304</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>199.6490870791046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138789</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>550.5977692975237</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647489</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>742.9354859824765</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>332.1692388321073</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270658</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34368,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340047</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>416.6233618831934</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427306</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>611.5937738991432</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>189.5729943876629</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1134779.735136632</v>
+        <v>1137934.654478854</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>1042617.113969143</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11126400.51662541</v>
+        <v>10869967.54494176</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>77.42639794035608</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>23.79925355567458</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>24.88166537968375</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>217.4025801238265</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.14763241892726</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>114.9470312412299</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>164.2540732785633</v>
+        <v>68.85005436466949</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>81.27887379618319</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7944255145775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>58.91300921516505</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>115.4987560770006</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.96386702300542</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>203.4068132192027</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>279.929000894521</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>106.9094576655913</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>208.1672894669814</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>74.99129529219189</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>13.72582864853737</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>155.1980648094033</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>146.1850499531015</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>212.5602966632231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>146.9393756113373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>75.00788511618036</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T46" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2065.110222835251</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1696.147705894839</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2841.849394875185</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
-        <v>2451.710062899373</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4439,22 +4439,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>820.4128495803434</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C4" t="n">
-        <v>651.4766666524365</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D4" t="n">
-        <v>651.4766666524365</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>503.5635730700434</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>356.673625572133</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>188.970788946852</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658018</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1705.527932658018</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1450.843444452131</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>1450.843444452131</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X4" t="n">
-        <v>1222.853893554113</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y4" t="n">
-        <v>1002.061314410583</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180638</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4713,28 +4713,28 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,25 +4746,25 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1761.381342756611</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="T7" t="n">
-        <v>1539.614727326137</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="U7" t="n">
-        <v>1250.51186045178</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V7" t="n">
-        <v>1250.51186045178</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1250.51186045178</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
         <v>1250.51186045178</v>
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1771.418012197379</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1402.455495256967</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,13 +4819,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520489</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2158.017852261501</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>907.5789065943389</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C10" t="n">
-        <v>738.6427236664321</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D10" t="n">
-        <v>588.5260842540963</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E10" t="n">
-        <v>440.6129906717032</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F10" t="n">
-        <v>293.7230431737928</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="G10" t="n">
-        <v>126.0202065485118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>126.0202065485118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1645.778206672847</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
-        <v>1356.361036635886</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1128.371485737869</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y10" t="n">
-        <v>907.5789065943389</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.793114229131</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468418</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.644273983533</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138415</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1491.569348694471</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>764.3411331473092</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876693</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D16" t="n">
-        <v>430.7826650753335</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1525.338674554731</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1270.654186348844</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>981.2370163118838</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>753.2474654138665</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>532.4548862703364</v>
       </c>
     </row>
     <row r="17">
@@ -5509,37 +5509,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,10 +5551,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229497</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859674</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5752,19 +5752,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6208,46 +6208,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,13 +6478,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,13 +6721,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
         <v>407.9027098310023</v>
@@ -6849,13 +6849,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,28 +6934,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852254</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797186</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,10 +7405,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7417,13 +7417,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,13 +7432,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7551,22 +7551,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7648,19 +7648,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7830,10 +7830,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
         <v>2171.280006238955</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>270.739182579053</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>111.8681131589319</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>16.14213605696654</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>102.0013691777408</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>39.52450498097789</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>78.04454873863151</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>142.4141550350964</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>211.9838267404998</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>12.04875628922451</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>71.22040037418677</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>24.63391537253398</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>139.4693302300329</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>73.624177726021</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>32.89260457060001</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T46" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>958156.3580759545</v>
+        <v>811102.2860218609</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>958156.3580759545</v>
+        <v>811102.2860218609</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>958156.3580759545</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>958156.3580759546</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>958156.3580759545</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>958156.3580759544</v>
+        <v>958156.3580759545</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>958156.3580759545</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>958156.3580759544</v>
+        <v>958156.3580759546</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>958156.3580759545</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="15">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719633</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719631</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>472099.0176719632</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.0176719631</v>
-      </c>
       <c r="E2" t="n">
-        <v>464109.2948217536</v>
+        <v>392146.6638165587</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217536</v>
+        <v>392146.6638165587</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217539</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
@@ -26355,7 +26355,7 @@
         <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598204</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545147</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813257</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813252</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1054323.791675155</v>
       </c>
       <c r="C6" t="n">
-        <v>274420.954052437</v>
+        <v>274420.9540524373</v>
       </c>
       <c r="D6" t="n">
-        <v>274420.9540524373</v>
+        <v>274420.9540524374</v>
       </c>
       <c r="E6" t="n">
-        <v>26669.83564935303</v>
+        <v>307112.3572582555</v>
       </c>
       <c r="F6" t="n">
-        <v>352082.2974567083</v>
+        <v>307112.3572582555</v>
       </c>
       <c r="G6" t="n">
-        <v>352082.2974567085</v>
+        <v>42551.90532580922</v>
       </c>
       <c r="H6" t="n">
-        <v>352082.2974567083</v>
+        <v>352394.9387856297</v>
       </c>
       <c r="I6" t="n">
-        <v>352082.2974567084</v>
+        <v>352394.9387856296</v>
       </c>
       <c r="J6" t="n">
-        <v>134551.095059431</v>
+        <v>134863.7363883524</v>
       </c>
       <c r="K6" t="n">
-        <v>352082.2974567086</v>
+        <v>352394.9387856296</v>
       </c>
       <c r="L6" t="n">
-        <v>352082.2974567083</v>
+        <v>352394.9387856296</v>
       </c>
       <c r="M6" t="n">
-        <v>267027.2695211966</v>
+        <v>352394.9387856296</v>
       </c>
       <c r="N6" t="n">
-        <v>352082.2974567084</v>
+        <v>352394.9387856297</v>
       </c>
       <c r="O6" t="n">
-        <v>352082.2974567084</v>
+        <v>270259.1081901782</v>
       </c>
       <c r="P6" t="n">
-        <v>352082.2974567084</v>
+        <v>352394.9387856296</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>277.2566436803269</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>362.438685100379</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>119.873349534637</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>69.12041821276449</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.5862092445533</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>239.736010379453</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>25.51495205287856</v>
+        <v>120.9189709667724</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>273.4041678244998</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.4435131414761</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.35543628911157</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>37.43941119467304</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>550.5977692975237</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>416.6233618831934</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
